--- a/admin/uploads/import/format/questions.xlsx
+++ b/admin/uploads/import/format/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ci_exam\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\bansalacademy\admin\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,36 +13,40 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>NIM</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>L/P</t>
-  </si>
-  <si>
-    <t>Class ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Que</t>
+  </si>
+  <si>
+    <t>option_a</t>
+  </si>
+  <si>
+    <t>option_b</t>
+  </si>
+  <si>
+    <t>option_c</t>
+  </si>
+  <si>
+    <t>option_d</t>
+  </si>
+  <si>
+    <t>option_e</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -60,6 +64,18 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1FA8C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,15 +113,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -406,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -422,74 +441,43 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="5"/>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:7">
+      <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:7">
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>